--- a/public/import/modelo_para_import.xlsx
+++ b/public/import/modelo_para_import.xlsx
@@ -5295,9 +5295,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W69" workbookViewId="0">
-      <selection activeCell="W232" sqref="W232"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
